--- a/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\6. Risk management plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -82,6 +82,88 @@
   </si>
   <si>
     <t>Mitigation methods</t>
+  </si>
+  <si>
+    <t>Requirements are misunderstood</t>
+  </si>
+  <si>
+    <t>Time is not enough for project development</t>
+  </si>
+  <si>
+    <t>Communication between project team and stakeholder (mentor and customer) is not good</t>
+  </si>
+  <si>
+    <t>Estimation is not well</t>
+  </si>
+  <si>
+    <t>Many defects in product after release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't complete the full functionality required </t>
+  </si>
+  <si>
+    <t>Morale of the team was down</t>
+  </si>
+  <si>
+    <t>The goal of stakeholders are different</t>
+  </si>
+  <si>
+    <t>Members lack the knowledge of professional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not enough knowledge about programming </t>
+  </si>
+  <si>
+    <t>Difficult to communicate with customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team member's laptop is decayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No have a specific plan
+No meet customer regularly to review SRS
+</t>
+  </si>
+  <si>
+    <t>The remaining time for project is not enough to implement remaining tasks in plan</t>
+  </si>
+  <si>
+    <t>Mentor doesn’t know current progress of project
+Customer misjudge team’s ability</t>
+  </si>
+  <si>
+    <t>We usually working over 
+or behind schedule ( &gt;10 task everyweek )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defects &gt; 10 </t>
+  </si>
+  <si>
+    <t>A few members lose trust in the group</t>
+  </si>
+  <si>
+    <t>Too difficult to do or manage
+ time is unresonable</t>
+  </si>
+  <si>
+    <t>Not understand about the ability and ambitious of stakeholders</t>
+  </si>
+  <si>
+    <t>Not understand what has been training about HVAC
+The new knowledge is very difficult</t>
+  </si>
+  <si>
+    <t>Not be able to programing in C# 
+and don't understand 3-tiers architecture</t>
+  </si>
+  <si>
+    <t>Can't establish meeting with customer regularly becasuse customer is too busy</t>
+  </si>
+  <si>
+    <t>To announce from team member</t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
 </sst>
 </file>
@@ -199,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -418,11 +500,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -458,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -506,6 +641,26 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,13 +977,13 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -845,14 +1000,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="5"/>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -872,22 +1027,22 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -896,55 +1051,75 @@
       <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="7"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" ht="60.75">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="21">
+        <v>41317</v>
+      </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="23"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="33"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="20"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="7"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="21"/>
+    <row r="4" spans="1:17" ht="45.75">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="21">
+        <v>41318</v>
+      </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -952,56 +1127,86 @@
       <c r="J4" s="23"/>
       <c r="K4" s="26"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="33"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="25"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="21"/>
+    <row r="5" spans="1:17" ht="60.75">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="21">
+        <v>41319</v>
+      </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="33"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="25"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75">
-      <c r="A6" s="7"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="21"/>
+    <row r="6" spans="1:17" ht="45.75">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21">
+        <v>41320</v>
+      </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" s="23"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="33"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="25"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" ht="15.75">
-      <c r="A7" s="7"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="21">
+        <v>41321</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -1009,178 +1214,252 @@
       <c r="J7" s="23"/>
       <c r="K7" s="26"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="33"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="25"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75">
-      <c r="A8" s="7"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="21"/>
+    <row r="8" spans="1:17" ht="30.75">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="21">
+        <v>41322</v>
+      </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="33"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="25"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75">
-      <c r="A9" s="7"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="21"/>
+    <row r="9" spans="1:17" ht="30.75">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="21">
+        <v>41323</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" s="23"/>
       <c r="K9" s="26"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="33"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="25"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75">
-      <c r="A10" s="7"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="21"/>
+    <row r="10" spans="1:17" ht="30.75">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="21">
+        <v>41324</v>
+      </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="33"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="25"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75">
-      <c r="A11" s="7"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="21"/>
+    <row r="11" spans="1:17" ht="60.75">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="21">
+        <v>41325</v>
+      </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="28"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="33"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="25"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75">
-      <c r="A12" s="7"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="21"/>
+    <row r="12" spans="1:17" ht="45.75">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="21">
+        <v>41326</v>
+      </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="28"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="33"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="25"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75">
-      <c r="A13" s="7"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="21"/>
+    <row r="13" spans="1:17" ht="45.75">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="21">
+        <v>41327</v>
+      </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="33"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="25"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="15.75">
-      <c r="A14" s="7"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="21">
+        <v>41328</v>
+      </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="33"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="25"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="7"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="25"/>
       <c r="E15" s="21"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="28"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="26"/>
       <c r="L15" s="18"/>
-      <c r="M15" s="33"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="25"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75">
-      <c r="A16" s="7"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="25"/>
       <c r="E16" s="21"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="28"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="33"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="25"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -1188,8 +1467,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75">
       <c r="A17" s="7"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="25"/>
       <c r="E17" s="21"/>
       <c r="F17" s="26"/>
@@ -1198,8 +1476,8 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="33"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="25"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -1207,8 +1485,8 @@
     </row>
     <row r="18" spans="1:17" ht="15.75">
       <c r="A18" s="7"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="25"/>
       <c r="E18" s="21"/>
       <c r="F18" s="26"/>
@@ -1217,8 +1495,8 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="33"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="25"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -1226,8 +1504,8 @@
     </row>
     <row r="19" spans="1:17" ht="15.75">
       <c r="A19" s="7"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="25"/>
       <c r="E19" s="21"/>
       <c r="F19" s="26"/>
@@ -1236,8 +1514,8 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="33"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="25"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -1246,7 +1524,7 @@
     <row r="20" spans="1:17" ht="15.75">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="11"/>
       <c r="E20" s="9"/>
       <c r="F20" s="7"/>
@@ -1255,8 +1533,8 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="14"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -1265,7 +1543,7 @@
     <row r="21" spans="1:17" ht="15.75">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="11"/>
       <c r="E21" s="9"/>
       <c r="F21" s="7"/>
@@ -1274,8 +1552,8 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="14"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -1284,7 +1562,7 @@
     <row r="22" spans="1:17" ht="15.75">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="11"/>
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
@@ -1293,8 +1571,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="14"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -1303,7 +1581,7 @@
     <row r="23" spans="1:17" ht="15.75">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
@@ -1312,8 +1590,8 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="14"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -1322,7 +1600,7 @@
     <row r="24" spans="1:17" ht="15.75">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="11"/>
       <c r="E24" s="9"/>
       <c r="F24" s="7"/>
@@ -1331,8 +1609,8 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="14"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -1341,7 +1619,7 @@
     <row r="25" spans="1:17" ht="15.75">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="11"/>
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
@@ -1350,8 +1628,8 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="14"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
@@ -1360,7 +1638,7 @@
     <row r="26" spans="1:17" ht="15.75">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="11"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
@@ -1369,8 +1647,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="14"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
@@ -1379,7 +1657,7 @@
     <row r="27" spans="1:17" ht="15.75">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="11"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
@@ -1388,8 +1666,8 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="14"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -1398,7 +1676,7 @@
     <row r="28" spans="1:17" ht="15.75">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="11"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
@@ -1407,8 +1685,8 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="14"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -1417,7 +1695,7 @@
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="11"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
@@ -1426,8 +1704,8 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="14"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -1436,7 +1714,7 @@
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="11"/>
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
@@ -1445,8 +1723,8 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="14"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -1455,7 +1733,7 @@
     <row r="31" spans="1:17" ht="15.75">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="11"/>
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
@@ -1464,8 +1742,8 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
       <c r="N31" s="14"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -1474,7 +1752,7 @@
     <row r="32" spans="1:17" ht="15.75">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="14"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -1484,7 +1762,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="33"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="14"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>

--- a/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
@@ -42,9 +42,6 @@
     <t>Date Raises</t>
   </si>
   <si>
-    <t>Likelihood</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>team</t>
+  </si>
+  <si>
+    <t>Probability</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1010,17 +1010,17 @@
       <c r="F1" s="45"/>
       <c r="G1" s="5"/>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>3</v>
@@ -1043,34 +1043,34 @@
         <v>4</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="J2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="39" t="s">
         <v>11</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>12</v>
       </c>
       <c r="P2" s="40"/>
       <c r="Q2" s="40"/>
@@ -1080,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="21">
         <v>41317</v>
@@ -1109,16 +1109,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="21">
-        <v>41318</v>
+        <v>41317</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -1138,16 +1138,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="21">
-        <v>41319</v>
+        <v>41317</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -1167,16 +1167,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="21">
-        <v>41320</v>
+        <v>41317</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -1196,16 +1196,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="21">
-        <v>41321</v>
+        <v>41317</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -1225,16 +1225,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="21">
-        <v>41322</v>
+        <v>41317</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -1254,16 +1254,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="21">
-        <v>41323</v>
+        <v>41317</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -1283,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="21">
-        <v>41324</v>
+        <v>41317</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -1312,16 +1312,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="21">
-        <v>41325</v>
+        <v>41317</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -1341,16 +1341,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="21">
-        <v>41326</v>
+        <v>41317</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -1370,16 +1370,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="21">
-        <v>41327</v>
+        <v>41317</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -1399,16 +1399,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="21">
-        <v>41328</v>
+        <v>41317</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>

--- a/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
@@ -12,20 +12,20 @@
     <workbookView xWindow="120" yWindow="240" windowWidth="19095" windowHeight="8265"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="risk management" sheetId="1" r:id="rId1"/>
+    <sheet name="status" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">Sheet1!$L$4</definedName>
-    <definedName name="Mung">Sheet1!$F$3:$F$4</definedName>
+    <definedName name="_GoBack" localSheetId="0">'risk management'!$L$4</definedName>
+    <definedName name="Mung">'risk management'!$F$3:$F$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -146,24 +146,42 @@
     <t>Not understand about the ability and ambitious of stakeholders</t>
   </si>
   <si>
-    <t>Not understand what has been training about HVAC
+    <t>Can't establish meeting with customer regularly becasuse customer is too busy</t>
+  </si>
+  <si>
+    <t>To announce from team member</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>mitigate</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>go away far from that risk</t>
+  </si>
+  <si>
+    <t>use some method to control that risk</t>
+  </si>
+  <si>
+    <t>live with that risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not be able to programing in java and android 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 The new knowledge is very difficult</t>
-  </si>
-  <si>
-    <t>Not be able to programing in C# 
-and don't understand 3-tiers architecture</t>
-  </si>
-  <si>
-    <t>Can't establish meeting with customer regularly becasuse customer is too busy</t>
-  </si>
-  <si>
-    <t>To announce from team member</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>Probability</t>
   </si>
 </sst>
 </file>
@@ -560,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -660,6 +678,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,7 +998,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>5</v>
@@ -1086,7 +1107,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="21">
         <v>41317</v>
@@ -1115,7 +1136,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="21">
         <v>41317</v>
@@ -1144,7 +1165,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="21">
         <v>41317</v>
@@ -1173,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="21">
         <v>41317</v>
@@ -1202,7 +1223,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="21">
         <v>41317</v>
@@ -1231,7 +1252,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="21">
         <v>41317</v>
@@ -1260,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="21">
         <v>41317</v>
@@ -1289,7 +1310,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="21">
         <v>41317</v>
@@ -1307,7 +1328,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="60.75">
+    <row r="11" spans="1:17" ht="45.75">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1315,10 +1336,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="21">
         <v>41317</v>
@@ -1344,10 +1365,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="21">
         <v>41317</v>
@@ -1373,10 +1394,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="21">
         <v>41317</v>
@@ -1402,10 +1423,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="21">
         <v>41317</v>
@@ -1768,31 +1789,46 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:3">
       <c r="B33" s="15"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:3">
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" spans="2:2">
+    <row r="35" spans="2:3">
+      <c r="B35" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:3">
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:3">
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:3">
       <c r="B41" s="16"/>
     </row>
   </sheetData>
@@ -1825,7 +1861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_Riskregistermanagement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="19095" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="risk management" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -115,11 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">Team member's laptop is decayed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No have a specific plan
-No meet customer regularly to review SRS
-</t>
   </si>
   <si>
     <t>The remaining time for project is not enough to implement remaining tasks in plan</t>
@@ -182,6 +177,107 @@
   <si>
     <t xml:space="preserve">
 The new knowledge is very difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No have a specific plan
+No meet customer regularly to review product backlog &amp; architectural drivers
+</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lots defect in architecture phase </t>
+  </si>
+  <si>
+    <t>Progress of architecture phase is slow</t>
+  </si>
+  <si>
+    <t>Lack of meeting place</t>
+  </si>
+  <si>
+    <t>lack of experience to manage project</t>
+  </si>
+  <si>
+    <t>Member lack of experience use to ACDM and design architecture</t>
+  </si>
+  <si>
+    <t>Not clearly  understand to using ACDM, a lots defect is defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no room to meeting </t>
+  </si>
+  <si>
+    <t>Member lack of experience use to manage project on time and meet expectation</t>
+  </si>
+  <si>
+    <t>Lack of skills about test tool</t>
+  </si>
+  <si>
+    <t>Communicate about tester and developer</t>
+  </si>
+  <si>
+    <t>pass k du testcase</t>
+  </si>
+  <si>
+    <t>Phu</t>
+  </si>
+  <si>
+    <t>Xuan Huy</t>
+  </si>
+  <si>
+    <t>Team members have to focus on semester (I,II)</t>
+  </si>
+  <si>
+    <t>Occurring conflict between team members</t>
+  </si>
+  <si>
+    <t>Team members working not complete, working on time deadline</t>
+  </si>
+  <si>
+    <t>Team members have illness, need a few days to rest</t>
+  </si>
+  <si>
+    <t>Identify the scope unclear of project</t>
+  </si>
+  <si>
+    <t>Concentrate too much to elicit depth of detail requirement stage</t>
+  </si>
+  <si>
+    <t>Exceeded time for requirement phase</t>
+  </si>
+  <si>
+    <t>Khang</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Estimating</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Scope/Requirement</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Comunication</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Controlling</t>
+  </si>
+  <si>
+    <t>Scope</t>
   </si>
 </sst>
 </file>
@@ -267,7 +363,7 @@
       <name val="Segoe"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +394,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -532,44 +640,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
+      <right/>
+      <top/>
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -578,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -671,17 +747,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,14 +1095,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -1067,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>5</v>
@@ -1096,7 +1194,7 @@
       <c r="P2" s="40"/>
       <c r="Q2" s="40"/>
     </row>
-    <row r="3" spans="1:17" ht="60.75">
+    <row r="3" spans="1:17" ht="75.75">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1104,18 +1202,29 @@
         <v>18</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="21">
         <v>41317</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="22">
+        <f>AVERAGE(80+80+80+60+60+40)/600</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H3" s="22">
+        <f>AVERAGE(90+90+85+90+80+85)/600</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I3" s="22">
+        <f>G3*H3</f>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J3" s="23"/>
       <c r="K3" s="22"/>
       <c r="L3" s="29"/>
@@ -1133,18 +1242,29 @@
         <v>19</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="21">
         <v>41317</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="22">
+        <f>AVERAGE(25+20+30+20+40+29)/600</f>
+        <v>0.27333333333333332</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" ref="H4:H28" si="0">AVERAGE(90+90+85+90+80+85)/600</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" ref="I4:I28" si="1">G4*H4</f>
+        <v>0.23688888888888887</v>
+      </c>
       <c r="J4" s="23"/>
       <c r="K4" s="26"/>
       <c r="L4" s="18"/>
@@ -1162,18 +1282,29 @@
         <v>20</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="21">
         <v>41317</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="22"/>
+      <c r="F5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G4:G28" si="2">AVERAGE(80+80+80+60+60+40)/600</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J5" s="23"/>
       <c r="K5" s="26"/>
       <c r="L5" s="29"/>
@@ -1191,18 +1322,29 @@
         <v>21</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="21">
         <v>41317</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="22"/>
+      <c r="F6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J6" s="23"/>
       <c r="K6" s="26"/>
       <c r="L6" s="30"/>
@@ -1220,18 +1362,27 @@
         <v>22</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="21">
         <v>41317</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J7" s="23"/>
       <c r="K7" s="26"/>
       <c r="L7" s="18"/>
@@ -1249,18 +1400,29 @@
         <v>23</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="21">
         <v>41317</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="26"/>
       <c r="L8" s="30"/>
@@ -1278,18 +1440,29 @@
         <v>24</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="21">
         <v>41317</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="22"/>
+      <c r="F9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J9" s="23"/>
       <c r="K9" s="26"/>
       <c r="L9" s="30"/>
@@ -1307,18 +1480,29 @@
         <v>25</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="21">
         <v>41317</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J10" s="22"/>
       <c r="K10" s="26"/>
       <c r="L10" s="30"/>
@@ -1328,34 +1512,43 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="45.75">
-      <c r="A11" s="7">
+    <row r="11" spans="1:17" s="66" customFormat="1" ht="45.75">
+      <c r="A11" s="57">
         <v>9</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="C11" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="60">
         <v>41317</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
     </row>
     <row r="12" spans="1:17" ht="45.75">
       <c r="A12" s="7">
@@ -1365,18 +1558,29 @@
         <v>27</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="21">
         <v>41317</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="F12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J12" s="27"/>
       <c r="K12" s="26"/>
       <c r="L12" s="30"/>
@@ -1394,18 +1598,29 @@
         <v>28</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="21">
         <v>41317</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J13" s="27"/>
       <c r="K13" s="26"/>
       <c r="L13" s="30"/>
@@ -1423,18 +1638,29 @@
         <v>29</v>
       </c>
       <c r="C14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="21">
         <v>41317</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="F14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J14" s="27"/>
       <c r="K14" s="26"/>
       <c r="L14" s="30"/>
@@ -1444,18 +1670,33 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
+    <row r="15" spans="1:17" ht="45.75">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="G15" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J15" s="27"/>
       <c r="K15" s="26"/>
       <c r="L15" s="18"/>
@@ -1465,18 +1706,33 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75">
+    <row r="16" spans="1:17" ht="30.75">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J16" s="27"/>
       <c r="K16" s="26"/>
       <c r="L16" s="30"/>
@@ -1488,13 +1744,31 @@
     </row>
     <row r="17" spans="1:17" ht="15.75">
       <c r="A17" s="7"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="F17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I17" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="30"/>
@@ -1504,16 +1778,33 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75">
+    <row r="18" spans="1:17" ht="45.75">
       <c r="A18" s="7"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="30"/>
@@ -1525,14 +1816,29 @@
     </row>
     <row r="19" spans="1:17" ht="15.75">
       <c r="A19" s="7"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="53" t="s">
+        <v>59</v>
+      </c>
       <c r="C19" s="27"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="30"/>
@@ -1544,14 +1850,29 @@
     </row>
     <row r="20" spans="1:17" ht="15.75">
       <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="53" t="s">
+        <v>60</v>
+      </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="31"/>
@@ -1563,14 +1884,29 @@
     </row>
     <row r="21" spans="1:17" ht="15.75">
       <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" s="48"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="31"/>
@@ -1582,14 +1918,29 @@
     </row>
     <row r="22" spans="1:17" ht="15.75">
       <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
       <c r="C22" s="48"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="31"/>
@@ -1601,14 +1952,29 @@
     </row>
     <row r="23" spans="1:17" ht="15.75">
       <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="48"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="31"/>
@@ -1620,14 +1986,29 @@
     </row>
     <row r="24" spans="1:17" ht="15.75">
       <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
       <c r="C24" s="48"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="31"/>
@@ -1639,14 +2020,29 @@
     </row>
     <row r="25" spans="1:17" ht="15.75">
       <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
       <c r="C25" s="48"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="31"/>
@@ -1658,14 +2054,29 @@
     </row>
     <row r="26" spans="1:17" ht="15.75">
       <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="31"/>
@@ -1677,14 +2088,29 @@
     </row>
     <row r="27" spans="1:17" ht="15.75">
       <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
       <c r="C27" s="48"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="31"/>
@@ -1695,15 +2121,30 @@
       <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17" ht="15.75">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="31"/>
@@ -1714,9 +2155,9 @@
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="48"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="11"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
@@ -1734,7 +2175,7 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="48"/>
       <c r="D30" s="11"/>
       <c r="E30" s="9"/>
@@ -1796,27 +2237,27 @@
       <c r="B34" s="15"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="54" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -1836,13 +2277,10 @@
     <sortCondition sortBy="cellColor" ref="F3" dxfId="0"/>
   </sortState>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H32">
-      <formula1>"20,40,60,80,100"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K32">
       <formula1>"Avoid,Transfer,Mitigate,Accept"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18 F20:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F32 F4:F18">
       <formula1>"Scope/Requirement,Technology,Scope,Time,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N32">
@@ -1850,6 +2288,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19">
       <formula1>"Scope/Requirement,Technology,Scope,Time,Equipment,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
+      <formula1>"Scope/Requirement,Technology,Scope,Time,Complexity,Performance,requirement,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
